--- a/strutspoc/performance/Performance Test.xlsx
+++ b/strutspoc/performance/Performance Test.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Struts</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>WEBINF</t>
+  </si>
+  <si>
+    <t>SpringWebflow</t>
   </si>
 </sst>
 </file>
@@ -419,14 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
@@ -474,28 +478,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>36.200000000000003</v>
+        <v>71.3</v>
       </c>
       <c r="F3">
-        <v>461.6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
+        <v>631.6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -503,19 +498,19 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>37.200000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="F4">
-        <v>468.2</v>
+        <v>461.6</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -529,25 +524,25 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>54.1</v>
+        <v>31.9</v>
       </c>
       <c r="F5">
-        <v>673.5</v>
+        <v>407.1</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -555,25 +550,129 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>31</v>
       </c>
-      <c r="D6">
-        <v>36</v>
-      </c>
       <c r="E6">
-        <v>31.9</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F6">
-        <v>407.1</v>
+        <v>468.2</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>54.1</v>
+      </c>
+      <c r="F7">
+        <v>673.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>37.5</v>
+      </c>
+      <c r="F8">
+        <v>459.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>47.2</v>
+      </c>
+      <c r="F9">
+        <v>459.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>69.3</v>
+      </c>
+      <c r="F10">
+        <v>590.79999999999995</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/strutspoc/performance/Performance Test.xlsx
+++ b/strutspoc/performance/Performance Test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Struts</t>
   </si>
@@ -425,7 +425,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +475,9 @@
       <c r="F2">
         <v>631.6</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -492,6 +495,9 @@
       <c r="F3">
         <v>631.6</v>
       </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -602,13 +608,13 @@
         <v>14</v>
       </c>
       <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
         <v>26</v>
       </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
       <c r="E8">
-        <v>37.5</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="F8">
         <v>459.5</v>

--- a/strutspoc/performance/Performance Test.xlsx
+++ b/strutspoc/performance/Performance Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\repo\git\strutspoc\strutspoc\performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java\repo\git\frameworkspoc\strutspoc\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>Struts</t>
   </si>
@@ -70,6 +69,15 @@
   </si>
   <si>
     <t>SpringWebflow</t>
+  </si>
+  <si>
+    <t>SpringMVC</t>
+  </si>
+  <si>
+    <t>Cache DB Query</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
 </sst>
 </file>
@@ -123,6 +131,1208 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Struts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Struts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SpringWebflow</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SpringWebflow</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SpringWebflow</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpringMVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C3A-4C2F-9E2A-DB12F35B0440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Struts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Struts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SpringWebflow</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SpringWebflow</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SpringWebflow</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpringMVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C3A-4C2F-9E2A-DB12F35B0440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pet/Seg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Struts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Struts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Primefaces</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SpringWebflow</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SpringWebflow</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SpringWebflow</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpringMVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C3A-4C2F-9E2A-DB12F35B0440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="191585296"/>
+        <c:axId val="191590872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="191585296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="191590872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="191590872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="191585296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,156 +1632,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="C1" s="1">
         <v>0.9</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
       <c r="C2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E2">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="F2">
         <v>631.6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
       <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>71.3</v>
+      </c>
+      <c r="E3">
+        <v>631.6</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>71.3</v>
-      </c>
-      <c r="F3">
-        <v>631.6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="I3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
       <c r="C4">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E4">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="F4">
         <v>461.6</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
       <c r="C5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>31.9</v>
       </c>
       <c r="E5">
-        <v>31.9</v>
-      </c>
-      <c r="F5">
         <v>407.1</v>
       </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
       <c r="C6">
         <v>26</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>43.4</v>
       </c>
       <c r="E6">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="F6">
-        <v>468.2</v>
+        <v>407.1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -581,23 +1813,26 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
       <c r="C7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E7">
-        <v>54.1</v>
-      </c>
-      <c r="F7">
-        <v>673.5</v>
+        <v>468.2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -605,25 +1840,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>44.5</v>
       </c>
       <c r="E8">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="F8">
-        <v>459.5</v>
+        <v>468.2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -631,58 +1869,149 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>54.1</v>
       </c>
       <c r="E9">
-        <v>47.2</v>
-      </c>
-      <c r="F9">
-        <v>459.5</v>
+        <v>673.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
       <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E10">
+        <v>459.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>47.2</v>
+      </c>
+      <c r="E11">
+        <v>459.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="D12">
         <v>69.3</v>
       </c>
-      <c r="F10">
+      <c r="E12">
         <v>590.79999999999995</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>59.9</v>
+      </c>
+      <c r="E13">
+        <v>643.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/strutspoc/performance/Performance Test.xlsx
+++ b/strutspoc/performance/Performance Test.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>Struts</t>
   </si>
@@ -79,6 +79,9 @@
   <si>
     <t>TYPE</t>
   </si>
+  <si>
+    <t>PIWIK</t>
+  </si>
 </sst>
 </file>
 
@@ -93,12 +96,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,9 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1632,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,9 +1657,10 @@
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1676,7 +1689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1698,8 +1711,12 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="2">
+        <f>D2*60*60*8</f>
+        <v>1932479.9999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1721,8 +1738,12 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K13" si="0">D3*60*60*8</f>
+        <v>2053440</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1750,8 +1771,12 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>1042560</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1779,37 +1804,45 @@
       <c r="I5" t="s">
         <v>11</v>
       </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>918720</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>26</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>43.4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>407.1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>1249920</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1837,8 +1870,12 @@
       <c r="I7" t="s">
         <v>11</v>
       </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>1071360</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1866,8 +1903,12 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>1281600</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1895,8 +1936,12 @@
       <c r="I9" t="s">
         <v>11</v>
       </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>1558080</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1924,8 +1969,12 @@
       <c r="I10" t="s">
         <v>11</v>
       </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>1100160</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1953,8 +2002,12 @@
       <c r="I11" t="s">
         <v>11</v>
       </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>1359360</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1982,8 +2035,12 @@
       <c r="I12" t="s">
         <v>11</v>
       </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>1995840</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2007,6 +2064,24 @@
       </c>
       <c r="I13" t="s">
         <v>11</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>1725120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
